--- a/Mifos Automation Excels/Loan Product/677-MS-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/677-MS-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -194,9 +194,6 @@
     <t>overpaymentliability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Same as repayment period</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -297,6 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +607,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -728,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,8 +746,8 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
+      <c r="B17" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -752,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -821,7 +824,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -959,10 +962,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
